--- a/docs/ValueSet-BRFrequenciaUsoSubstancia.xlsx
+++ b/docs/ValueSet-BRFrequenciaUsoSubstancia.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/docs/ValueSet-BRFrequenciaUsoSubstancia.xlsx
+++ b/docs/ValueSet-BRFrequenciaUsoSubstancia.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-BRFrequenciaUsoSubstancia.xlsx
+++ b/docs/ValueSet-BRFrequenciaUsoSubstancia.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-BRFrequenciaUsoSubstancia.xlsx
+++ b/docs/ValueSet-BRFrequenciaUsoSubstancia.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from GTSAbbreviation" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Frequência de Us" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
